--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3773.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3773.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.463120633908556</v>
+        <v>0.4092961847782135</v>
       </c>
       <c r="B1">
-        <v>2.710980825515276</v>
+        <v>1.289472460746765</v>
       </c>
       <c r="C1">
-        <v>3.232616274423139</v>
+        <v>4.512758255004883</v>
       </c>
       <c r="D1">
-        <v>3.797863573628579</v>
+        <v>1.672162413597107</v>
       </c>
       <c r="E1">
-        <v>1.836414639778248</v>
+        <v>1.002083778381348</v>
       </c>
     </row>
   </sheetData>
